--- a/biology/Zoologie/Baie_de_Somme/Baie_de_Somme.xlsx
+++ b/biology/Zoologie/Baie_de_Somme/Baie_de_Somme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La baie de Somme est située sur le littoral de la Picardie (Hauts-de-France) en France. Elle s'étend sur 70 km2. Elle est d'une grande richesse écologique notamment en tant que haut lieu ornithologique.
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La baie de Somme est située entre la pointe du Hourdel au sud et la pointe de Saint-Quentin-en-Tourmont au nord. La Somme, fleuve côtier qui a donné son nom au département, se jette dans la Manche à cet endroit.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La baie est principalement constituée de deux milieux :
 la slikke, zone de vasières, recouverte par la mer deux fois par jour,
@@ -552,19 +568,124 @@
 celui de la Somme au sud, et
 celui de la Maye, petit fleuve côtier, au nord.
 Elle est cependant menacée d'ensablement dont les premiers symptômes sont déjà visibles.
-Débouché de la Somme dans la Manche
-L'eau douce du fleuve y devient saumâtre et forme ce qu'on appelle le fleuve côtier qui remonte vers le nord le long du littoral, entretenu par les apports en eau douce de l'Authie puis de la Canche.
-Ces eaux un peu moins salées sont appréciées des alevins et adultes de nombreuses espèces de poissons. Elles forment une sorte de sous-corridor biologique, avec une masse d'eau différenciée remontant globalement vers le nord. Des atlas des habitats et espèces des fonds sous-marins ont été réalisés dans le cadre du programme franco-anglais CHARM (CHannel integrated Approach for marine Resource Management)[1] ; ils montrent la grande importance de cet estuaire dans le complexe des estuaires picards et du fleuve côtier qui longe la façade ouest de la Picardie et du Pas-de-Calais.
-Géologie
-L'estuaire, la configuration et la plage du trait de côte en amont/aval ont une origine clairement hydrologique, mais probablement aussi tectonique, voire néotectonique, avec un jeu de failles qui semblent avoir été actives durant le quaternaire, notamment dans le contexte glacio-eustatique[2].
-Faune
-La baie de Somme est aujourd'hui internationalement reconnue pour sa richesse écologique ; elle est notamment considérée comme un haut lieu ornithologique grâce à la richesse de ses milieux qui offrent des conditions d'accueil favorables aux oiseaux sédentaires et migrateurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Débouché de la Somme dans la Manche</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'eau douce du fleuve y devient saumâtre et forme ce qu'on appelle le fleuve côtier qui remonte vers le nord le long du littoral, entretenu par les apports en eau douce de l'Authie puis de la Canche.
+Ces eaux un peu moins salées sont appréciées des alevins et adultes de nombreuses espèces de poissons. Elles forment une sorte de sous-corridor biologique, avec une masse d'eau différenciée remontant globalement vers le nord. Des atlas des habitats et espèces des fonds sous-marins ont été réalisés dans le cadre du programme franco-anglais CHARM (CHannel integrated Approach for marine Resource Management) ; ils montrent la grande importance de cet estuaire dans le complexe des estuaires picards et du fleuve côtier qui longe la façade ouest de la Picardie et du Pas-de-Calais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'estuaire, la configuration et la plage du trait de côte en amont/aval ont une origine clairement hydrologique, mais probablement aussi tectonique, voire néotectonique, avec un jeu de failles qui semblent avoir été actives durant le quaternaire, notamment dans le contexte glacio-eustatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La baie de Somme est aujourd'hui internationalement reconnue pour sa richesse écologique ; elle est notamment considérée comme un haut lieu ornithologique grâce à la richesse de ses milieux qui offrent des conditions d'accueil favorables aux oiseaux sédentaires et migrateurs.
 Cette richesse a suscité la création, dans sa partie nord (embouchure de la Maye), d'une réserve nationale de chasse en 1968, transformée en réserve naturelle (avec modifications des limites) en 1994, la Réserve naturelle nationale de la baie de Somme dont le parc du Marquenterre fait partie.
 La baie de Somme est également réputée pour la présence de phoques, qu'il est recommandé de ne pas approcher : 
 phoques-veaux marins : population en progression avec un nombre supérieur à 100 en 2006 et 2007, 150 en 2009 et 2010, 190 en 2011, 550 en 2016 ;
 phoques gris, de plus en plus nombreux.
 C'est aussi le lieu de repos et d'alimentation d'oiseaux d'eau (canards colvert, siffleurs, sarcelles, chipeaux, etc.) ainsi que de limicoles (bécassines, courlis, huîtriers pies, vanneaux, etc.), ce qui fait de la baie un terrain de chasse au gibier d'eau.
-C'est enfin une zone de productivité biologique exceptionnelle (bien que se dégradant, notamment pour les coques et les poissons)[3], comme la proche baie de Canche.
+C'est enfin une zone de productivité biologique exceptionnelle (bien que se dégradant, notamment pour les coques et les poissons), comme la proche baie de Canche.
 			Le goéland argenté.
 			Un phoque.
 			Une aigrette garzette.
@@ -573,31 +694,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Baie_de_Somme</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Vers 615, Valery de Leuconay fonda l'abbaye de Saint-Valery-sur-Somme. En 1066, Guillaume le Conquérant fit mouiller sa flotte dans la baie de Somme et partit du port de Saint-Valery à la conquête de l'Angleterre.
 En décembre 1430, Jeanne d'Arc, prisonnière des Anglais, fut détenue au Crotoy et traversa la baie jusqu'à Saint-Valery puis fut conduite à Rouen pour son procès.
@@ -608,158 +731,347 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Baie_de_Somme</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Protection du site</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Réserve naturelle nationale de la baie de Somme
-Crée par décret le 21 mars 1994, c'est une zone de 3 000 ha qui est concentrée, essentiellement en zone maritime, de la nouvelle pointe de Saint-Quentin-en-Tourmont à l'embouchure de la Maye, petit fleuve côtier débouchant au nord de la baie de Somme. Elle intègre le Parc du Marquenterre sur sa partie terrestre.
-Grand site de France
-La baie de Somme est labellisée « Grand Site de France » le 15 juin 2011 par le Ministère de l'Écologie, du Développement et de l'Aménagement durables.
-Elle est le dixième site ainsi labellisé en tant que l'une des plus grandes zones humides de France, inscrite dans le réseau européen Natura 2000 / Convention de Ramsar[4].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Réserve naturelle nationale de la baie de Somme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crée par décret le 21 mars 1994, c'est une zone de 3 000 ha qui est concentrée, essentiellement en zone maritime, de la nouvelle pointe de Saint-Quentin-en-Tourmont à l'embouchure de la Maye, petit fleuve côtier débouchant au nord de la baie de Somme. Elle intègre le Parc du Marquenterre sur sa partie terrestre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Protection du site</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Grand site de France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La baie de Somme est labellisée « Grand Site de France » le 15 juin 2011 par le Ministère de l'Écologie, du Développement et de l'Aménagement durables.
+Elle est le dixième site ainsi labellisé en tant que l'une des plus grandes zones humides de France, inscrite dans le réseau européen Natura 2000 / Convention de Ramsar.
 La baie fait désormais partie du réseau des Grands Sites de France.
-Parc naturel marin
-La baie de Somme fait partie du Parc naturel marin des estuaires picards et de la mer d'Opale créé en décembre 2012. Ce parc naturel marin, situé au large de la Seine maritime, de la Somme et du Pas-de-Calais, concerne 118 km de côtes et sept estuaires : la Slack, le Wimereux, la Liane, la Canche, l'Authie, la Somme et la Bresle.
-Réglementation
-Un arrêté préfectoral interdit la motomarine (jet-ski) toute l'année en baie de Somme[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Protection du site</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Parc naturel marin</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La baie de Somme fait partie du Parc naturel marin des estuaires picards et de la mer d'Opale créé en décembre 2012. Ce parc naturel marin, situé au large de la Seine maritime, de la Somme et du Pas-de-Calais, concerne 118 km de côtes et sept estuaires : la Slack, le Wimereux, la Liane, la Canche, l'Authie, la Somme et la Bresle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Protection du site</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Réglementation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un arrêté préfectoral interdit la motomarine (jet-ski) toute l'année en baie de Somme.
 Aviation : il est interdit de survoler la zone en dessous de 800ft (environ 245m). (Source : Carte IGN, validé par le SIA)
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Baie_de_Somme</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Économie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agriculture
-Il n'est pas rare d'apercevoir des troupeaux de moutons broutant dans la baie à marée basse, le goût particulier de leur chair a donné lieu à l'appellation AOC de « prés-salés » de la baie de Somme[6]. La partie de la baie découverte à marée basse dans laquelle viennent se nourrir les moutons s'appelle l'estran.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'est pas rare d'apercevoir des troupeaux de moutons broutant dans la baie à marée basse, le goût particulier de leur chair a donné lieu à l'appellation AOC de « prés-salés » de la baie de Somme. La partie de la baie découverte à marée basse dans laquelle viennent se nourrir les moutons s'appelle l'estran.
 C'est en baie de Somme qu'a été créée la race équine des Hensons aussi appelé le cheval de la baie de somme.
 La baie de Somme est un lieu de cueillette de la salicorne.
-Tourisme
-La baie de Somme a obtenu en 2011 le label Grand Site de France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tourisme</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La baie de Somme a obtenu en 2011 le label Grand Site de France.
 Avec son climat océanique frais et humide, mais aussi ensoleillé, la baie de Somme attire promeneurs et sportifs du week-end. Les Européens, notamment les Belges et les Français du Nord y séjournent volontiers.
 Une piste cyclable permet de faire le tour de la baie, du Crotoy à Saint-Valery. Le chemin de fer de la baie de Somme assure la liaison entre Le Crotoy, Noyelles, Saint-Valery et Cayeux (et vice-versa).
 Les plages du Crotoy et de Saint-Valery offrent toute la gamme des loisirs de plein air. À partir de Saint-Valery on peut effectuer une promenade en bateau et une balade en kayak de mer. Ault possède des hâbles et une petite plage.
 Le parc du Marquenterre est un espace naturel accueillant les oiseaux migrateurs, des sentiers et observatoires permettent de les observer en compagnie de guides naturalistes. À Lanchères se trouve la Maison de la Baie de Somme, centre d'Interprétation du territoire dont la scénographie a été renouvelée courant 2020.Trois ports de pêche ou/et de plaisance agrémentent la baie : Le Crotoy, Saint-Valery-sur-Somme et Le Hourdel.
 La vieille ville de Saint-Valery-sur-Somme possède un patrimoine médiéval remarquable et un écomusée Picarvie.
 La Picardie maritime possède de beaux exemples d'architecture gothique flamboyant à Abbeville, Saint-Riquier et Rue.
-En mars 2024, le site est à la troisième place des Green Destinations Awards décernés lors de l'ITB 2024[7],[8].
-Industrie
-La baie de Somme est le berceau de la serrurerie et de la robinetterie françaises[9].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Baie_de_Somme</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+En mars 2024, le site est à la troisième place des Green Destinations Awards décernés lors de l'ITB 2024,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Industrie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La baie de Somme est le berceau de la serrurerie et de la robinetterie françaises.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Risques naturels</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis une trentaine d'années plusieurs risques naturels semblent croître sur le littoral normano-picard, en raison du cumul de plusieurs causes : érosion régressive à long terme du trait de côte (attendue sur les zones d'ablation), « épuisement progressif du stock de galets exacerbé par les interventions humaines », et « oscillation positive de la fréquence et de l’intensité des conditions météo-marines paroxysmales, notamment des vents d’afflux de secteur NW, sur la période 1975-1990 »[10].
-Une élévation du niveau marin et/ou une modification des caractéristiques des vents et tempêtes sont attendues dans le contexte du dérèglement climatique et de la montée des océans, dans une mesure qui reste à modéliser plus finement[10].
-Les modèles de redistribution des sédiments et la dynamique marine font que les secteurs les plus à risque d'érosion demain pourraient être situés différemment par rapport à ce qu'ils sont aujourd'hui[10].
-Jusqu'à une hausse de 0,40 m, seule la fréquence des submersions de tempête et de surcotes sera accentuée[10]. Au-delà les dégâts seront plus importants.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Baie_de_Somme</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis une trentaine d'années plusieurs risques naturels semblent croître sur le littoral normano-picard, en raison du cumul de plusieurs causes : érosion régressive à long terme du trait de côte (attendue sur les zones d'ablation), « épuisement progressif du stock de galets exacerbé par les interventions humaines », et « oscillation positive de la fréquence et de l’intensité des conditions météo-marines paroxysmales, notamment des vents d’afflux de secteur NW, sur la période 1975-1990 ».
+Une élévation du niveau marin et/ou une modification des caractéristiques des vents et tempêtes sont attendues dans le contexte du dérèglement climatique et de la montée des océans, dans une mesure qui reste à modéliser plus finement.
+Les modèles de redistribution des sédiments et la dynamique marine font que les secteurs les plus à risque d'érosion demain pourraient être situés différemment par rapport à ce qu'ils sont aujourd'hui.
+Jusqu'à une hausse de 0,40 m, seule la fréquence des submersions de tempête et de surcotes sera accentuée. Au-delà les dégâts seront plus importants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baie_de_Somme</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Les artistes et la baie de Somme</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Dès le XIXe siècle et jusqu'à aujourd'hui, des écrivains tels que :
 Victor Hugo ;
 Jules Verne ;
 Anatole France ;
 Colette vinrent séjourner aux abords de la baie.
-Les peintres furent encore plus nombreux à s'inspirer des paysages marins et estuariens, ainsi que de scènes de vie de la baie[11],[12],[13],
+Les peintres furent encore plus nombreux à s'inspirer des paysages marins et estuariens, ainsi que de scènes de vie de la baie
 Louis Braquaval
 Jules-Désiré Caudron
 Edgar Degas,
@@ -769,9 +1081,9 @@
 Henri de Toulouse-Lautrec,
 Abel Bertram,
 Georges Bilhaut,
-Roger Reboussin[14]
-Alfred Manessier[15] qui y vint tout au long de sa vie.
-Michel Patrix[16].</t>
+Roger Reboussin
+Alfred Manessier qui y vint tout au long de sa vie.
+Michel Patrix.</t>
         </is>
       </c>
     </row>
